--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E969018A-AC48-49D3-95EB-131E718E90CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BAD33E-2FC3-49B0-AC8F-5D888E37EF81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="1935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="1935" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="Products" sheetId="4" r:id="rId4"/>
     <sheet name="Leads" sheetId="5" r:id="rId5"/>
     <sheet name="Opportunities" sheetId="6" r:id="rId6"/>
+    <sheet name="DataProvider" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
   <si>
     <t>TC_ID</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Ed</t>
-  </si>
-  <si>
     <t>Banking</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>BGL</t>
-  </si>
-  <si>
     <t>CreateLead</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>Stephen</t>
   </si>
   <si>
-    <t>rahul</t>
-  </si>
-  <si>
     <t>IBM</t>
   </si>
   <si>
@@ -304,10 +295,31 @@
     <t>AssignToCategory</t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
     <t>PetropacK100</t>
+  </si>
+  <si>
+    <t>CreateLeadWithLeadSourceAndIndustry</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
   </si>
 </sst>
 </file>
@@ -370,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -396,6 +408,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -764,20 +779,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +795,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -876,7 +881,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -894,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0189A18D-E75B-4237-9E91-ED94635D1604}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,11 +910,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,10 +951,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -981,20 +986,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1007,25 +1012,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1037,30 +1042,30 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1070,9 +1075,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B47207-AC22-4DFF-B227-97504549B466}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1084,7 +1091,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1094,25 +1101,21 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1123,30 +1126,26 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1157,27 +1156,67 @@
         <v>2</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1214,48 +1253,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1266,54 +1305,54 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,48 +1363,48 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1376,54 +1415,84 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB5AD2B-4966-4F98-AF68-DB4DF6DF02A8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
